--- a/org.techpanda/src/test/resources/testdata.xlsx
+++ b/org.techpanda/src/test/resources/testdata.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{06668F69-6C90-4A80-9956-DFE4B5C0F8D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="15030" windowHeight="4140" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -15,10 +14,10 @@
     <sheet name="test4" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet5" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <oleSize ref="A1:M12"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -79,8 +78,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,7 +179,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -215,7 +214,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -392,23 +391,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -419,7 +418,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -430,7 +429,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -441,7 +440,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -458,26 +457,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE989E2A-A793-467F-A1B7-F46584037F84}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9A102F6-0E41-4D94-A4B3-9B5F3D9A2F8E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -488,14 +487,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E903ED88-140C-4E6B-8237-9ACD05BBFE08}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -506,20 +505,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80496BEA-01D9-4A23-B237-B6BF30637182}">
-  <dimension ref="A1:D1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="26.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="18.75">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -534,12 +533,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33D3B8EB-0975-443D-99E0-7D823985655D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
